--- a/datos.xlsx
+++ b/datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>FECHA INGRESO</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">Pbro. Lorenzo Pérez esq Domingo Ortíz </t>
   </si>
   <si>
-    <t>END</t>
+    <t>tipoInmueble</t>
   </si>
 </sst>
 </file>
@@ -137,13 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,12 +438,12 @@
     <col min="3" max="3" width="20.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3"/>
-    <col min="7" max="7" width="37.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,14 +462,17 @@
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44370</v>
       </c>
@@ -478,16 +482,14 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>FECHA INGRESO</t>
-  </si>
-  <si>
-    <t>tipo de propiedad</t>
   </si>
   <si>
     <t>departamento</t>
@@ -76,12 +73,36 @@
   <si>
     <t>tipoInmueble</t>
   </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1oV-qfNcAfP5WEQCiXlzBzbdhoTHAreQw?usp=sharing</t>
+  </si>
+  <si>
+    <t>FOTOS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1v7MA25xW1gwBp8rHIVLuGRCnFTnmH5aV?usp=sharing</t>
+  </si>
+  <si>
+    <t>Gs. 1.000.000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>USD 20.000</t>
+  </si>
+  <si>
+    <t>15 de Agosto N° 230 entre Palma y Pte. Franco</t>
+  </si>
+  <si>
+    <t>test Monoambiente con un baño y balcón a la calle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +125,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +159,12 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -145,6 +186,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,75 +470,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="15.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>12</v>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44370</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>38119</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/datos.xlsx
+++ b/datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>FECHA INGRESO</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>test Monoambiente con un baño y balcón a la calle</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>disponible</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +495,7 @@
     <col min="9" max="9" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +523,11 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44370</v>
       </c>
@@ -537,8 +546,11 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>38119</v>
       </c>
@@ -566,6 +578,7 @@
       <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="J3" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -62029,6 +62029,9 @@
       <c r="AG536" t="s">
         <v>50</v>
       </c>
+      <c r="AH536" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="537" spans="1:34">
       <c r="A537" s="80" t="s">
@@ -62093,6 +62096,9 @@
       <c r="AF537" s="9" t="s">
         <v>1155</v>
       </c>
+      <c r="AG537" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="538" spans="1:34">
       <c r="A538" s="80" t="s">
@@ -62185,6 +62191,12 @@
       <c r="AF538" s="10" t="s">
         <v>1161</v>
       </c>
+      <c r="AG538" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH538" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="539" spans="1:34">
       <c r="A539" s="80" t="s">
@@ -62279,6 +62291,12 @@
       <c r="AF539" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG539" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH539" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="540" spans="1:34">
       <c r="A540" s="80" t="s">
@@ -62373,6 +62391,12 @@
       <c r="AF540" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG540" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH540" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="541" spans="1:34">
       <c r="A541" s="80" t="s">
@@ -62467,6 +62491,9 @@
       <c r="AF541" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG541" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="542" spans="1:34">
       <c r="A542" s="80" t="s">
@@ -62561,6 +62588,9 @@
       <c r="AF542" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG542" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="543" spans="1:34">
       <c r="A543" s="80" t="s">
@@ -62657,6 +62687,12 @@
       <c r="AF543" s="52" t="s">
         <v>42</v>
       </c>
+      <c r="AG543" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH543" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="544" spans="1:34">
       <c r="A544" s="80" t="s">
@@ -62753,6 +62789,12 @@
       <c r="AF544" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG544" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH544" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="545" spans="1:34">
       <c r="A545" s="80" t="s">
@@ -62847,6 +62889,12 @@
       <c r="AF545" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG545" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH545" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="546" spans="1:34">
       <c r="A546" s="80" t="s">
@@ -62941,6 +62989,12 @@
       <c r="AF546" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG546" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH546" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="547" spans="1:34">
       <c r="A547" s="80" t="s">
@@ -63033,6 +63087,12 @@
       <c r="AF547" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG547" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH547" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="548" spans="1:34">
       <c r="A548" s="80" t="s">
@@ -63127,6 +63187,12 @@
         <v>54</v>
       </c>
       <c r="AF548" s="10"/>
+      <c r="AG548" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH548" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="549" spans="1:34">
       <c r="A549" s="80" t="s">
@@ -63219,6 +63285,12 @@
         <v>54</v>
       </c>
       <c r="AF549" s="10"/>
+      <c r="AG549" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH549" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="550" spans="1:34">
       <c r="A550" s="80" t="s">
@@ -63313,6 +63385,12 @@
         <v>54</v>
       </c>
       <c r="AF550" s="9"/>
+      <c r="AG550" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH550" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="551" spans="1:34">
       <c r="A551" s="80" t="s">
@@ -63407,6 +63485,12 @@
         <v>54</v>
       </c>
       <c r="AF551" s="10"/>
+      <c r="AG551" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH551" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="552" spans="1:34">
       <c r="A552" s="80" t="s">
@@ -63499,6 +63583,12 @@
       <c r="AF552" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG552" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH552" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="553" spans="1:34">
       <c r="A553" s="80" t="s">
@@ -63583,6 +63673,9 @@
       <c r="AF553" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG553" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="554" spans="1:34">
       <c r="A554" s="80" t="s">
@@ -63677,6 +63770,12 @@
         <v>96</v>
       </c>
       <c r="AF554" s="10"/>
+      <c r="AG554" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH554" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="555" spans="1:34">
       <c r="A555" s="80" t="s">
@@ -63772,6 +63871,12 @@
       <c r="AE555" s="9"/>
       <c r="AF555" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="AG555" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH555" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="556" spans="1:34">
@@ -63849,6 +63954,9 @@
       <c r="AF556" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG556" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="557" spans="1:34">
       <c r="A557" s="80" t="s">
@@ -63945,6 +64053,12 @@
       <c r="AF557" s="10" t="s">
         <v>1250</v>
       </c>
+      <c r="AG557" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH557" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="558" spans="1:34">
       <c r="A558" s="80" t="s">
@@ -64036,6 +64150,9 @@
       </c>
       <c r="AF558" s="10" t="s">
         <v>1252</v>
+      </c>
+      <c r="AG558" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="559" spans="1:34">
@@ -64119,6 +64236,12 @@
       <c r="AF559" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG559" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH559" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="560" spans="1:34">
       <c r="A560" s="80" t="s">
@@ -64201,6 +64324,12 @@
       <c r="AF560" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG560" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH560" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="561" spans="1:34">
       <c r="A561" s="80" t="s">
@@ -64287,6 +64416,12 @@
       <c r="AF561" s="9" t="s">
         <v>1266</v>
       </c>
+      <c r="AG561" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH561" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="562" spans="1:34">
       <c r="A562" s="80" t="s">
@@ -64373,6 +64508,9 @@
       <c r="AF562" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="AG562" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="563" spans="1:34">
       <c r="A563" s="80" t="s">
@@ -64468,6 +64606,12 @@
       <c r="AE563" s="14"/>
       <c r="AF563" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG563" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH563" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="564" spans="1:34">
@@ -64539,6 +64683,12 @@
       <c r="AD564" s="45"/>
       <c r="AE564" s="14"/>
       <c r="AF564" s="14"/>
+      <c r="AG564" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH564" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="565" spans="1:34">
       <c r="A565" s="80" t="s">
@@ -64628,6 +64778,12 @@
       <c r="AE565" s="14"/>
       <c r="AF565" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG565" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH565" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="566" spans="1:34">
@@ -64712,6 +64868,12 @@
       <c r="AE566" s="14"/>
       <c r="AF566" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG566" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH566" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="567" spans="1:34">
@@ -64793,6 +64955,9 @@
       <c r="AF567" s="11" t="s">
         <v>1293</v>
       </c>
+      <c r="AG567" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="568" spans="1:34">
       <c r="A568" s="80" t="s">
@@ -64871,6 +65036,9 @@
       <c r="AF568" s="9" t="s">
         <v>1296</v>
       </c>
+      <c r="AG568" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="569" spans="1:34">
       <c r="A569" s="80" t="s">
@@ -64954,6 +65122,12 @@
       <c r="AE569" s="14"/>
       <c r="AF569" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG569" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH569" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="570" spans="1:34">
@@ -65017,6 +65191,9 @@
       <c r="AF570" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG570" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="571" spans="1:34">
       <c r="A571" s="80" t="s">
@@ -65079,6 +65256,9 @@
       <c r="AF571" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG571" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="572" spans="1:34">
       <c r="A572" s="80" t="s">
@@ -65141,6 +65321,9 @@
       <c r="AF572" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG572" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="573" spans="1:34">
       <c r="A573" s="80" t="s">
@@ -65203,6 +65386,9 @@
       <c r="AF573" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG573" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="574" spans="1:34">
       <c r="A574" s="80" t="s">
@@ -65265,6 +65451,9 @@
       <c r="AF574" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG574" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="575" spans="1:34">
       <c r="A575" s="80" t="s">
@@ -65327,6 +65516,9 @@
       <c r="AF575" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG575" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="576" spans="1:34">
       <c r="A576" s="80" t="s">
@@ -65389,6 +65581,9 @@
       <c r="AF576" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG576" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="577" spans="1:34">
       <c r="A577" s="80" t="s">
@@ -65451,6 +65646,9 @@
       <c r="AF577" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG577" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="578" spans="1:34">
       <c r="A578" s="80" t="s">
@@ -65513,6 +65711,9 @@
       <c r="AF578" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG578" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="579" spans="1:34">
       <c r="A579" s="80" t="s">
@@ -65575,6 +65776,9 @@
       <c r="AF579" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG579" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="580" spans="1:34">
       <c r="A580" s="80" t="s">
@@ -65649,6 +65853,9 @@
       <c r="AD580" s="45"/>
       <c r="AE580" s="14"/>
       <c r="AF580" s="14"/>
+      <c r="AG580" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="581" spans="1:34">
       <c r="A581" s="80" t="s">
@@ -65737,6 +65944,12 @@
       <c r="AF581" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="AG581" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH581" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="582" spans="1:34">
       <c r="A582" s="80" t="s">
@@ -65829,6 +66042,12 @@
         <v>26</v>
       </c>
       <c r="AF582" s="10"/>
+      <c r="AG582" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH582" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="583" spans="1:34">
       <c r="A583" s="80" t="s">
@@ -65918,6 +66137,12 @@
       </c>
       <c r="AF583" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG583" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH583" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="584" spans="1:34">
@@ -65969,6 +66194,9 @@
       <c r="AD584" s="45"/>
       <c r="AE584" s="14"/>
       <c r="AF584" s="14"/>
+      <c r="AG584" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="585" spans="1:34">
       <c r="A585" s="80" t="s">
@@ -66035,6 +66263,9 @@
       <c r="AF585" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG585" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="586" spans="1:34">
       <c r="A586" s="80" t="s">
@@ -66127,6 +66358,9 @@
       <c r="AF586" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG586" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="587" spans="1:34">
       <c r="A587" s="80" t="s">
@@ -66219,6 +66453,9 @@
       <c r="AF587" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG587" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="588" spans="1:34">
       <c r="A588" s="80" t="s">
@@ -66311,6 +66548,9 @@
       <c r="AF588" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG588" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="589" spans="1:34">
       <c r="A589" s="80" t="s">
@@ -66403,6 +66643,9 @@
       <c r="AF589" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG589" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="590" spans="1:34">
       <c r="A590" s="80" t="s">
@@ -66499,6 +66742,12 @@
       <c r="AF590" s="10" t="s">
         <v>1349</v>
       </c>
+      <c r="AG590" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH590" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="591" spans="1:34">
       <c r="A591" s="80" t="s">
@@ -66591,6 +66840,9 @@
       <c r="AF591" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="AG591" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="592" spans="1:34">
       <c r="A592" s="80" t="s">
@@ -66683,6 +66935,9 @@
       <c r="AF592" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="AG592" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="593" spans="1:34">
       <c r="A593" s="80" t="s">
@@ -66775,6 +67030,9 @@
       <c r="AF593" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="AG593" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="594" spans="1:34">
       <c r="A594" s="80" t="s">
@@ -66867,6 +67125,9 @@
       <c r="AF594" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="AG594" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="595" spans="1:34">
       <c r="A595" s="80" t="s">
@@ -66963,6 +67224,12 @@
       <c r="AF595" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG595" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH595" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="596" spans="1:34">
       <c r="A596" s="80" t="s">
@@ -67055,6 +67322,12 @@
       <c r="AF596" s="10" t="s">
         <v>1369</v>
       </c>
+      <c r="AG596" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH596" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="597" spans="1:34">
       <c r="A597" s="80" t="s">
@@ -67149,6 +67422,12 @@
       <c r="AF597" s="9" t="s">
         <v>1375</v>
       </c>
+      <c r="AG597" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH597" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="598" spans="1:34">
       <c r="A598" s="80" t="s">
@@ -67237,6 +67516,9 @@
       <c r="AF598" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG598" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="599" spans="1:34">
       <c r="A599" s="80" t="s">
@@ -67335,6 +67617,12 @@
       <c r="AF599" s="10" t="s">
         <v>1381</v>
       </c>
+      <c r="AG599" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH599" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="600" spans="1:34">
       <c r="A600" s="80" t="s">
@@ -67431,6 +67719,12 @@
         <v>37</v>
       </c>
       <c r="AF600" s="53"/>
+      <c r="AG600" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH600" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="601" spans="1:34">
       <c r="A601" s="80" t="s">
@@ -67503,6 +67797,9 @@
       </c>
       <c r="AE601" s="14"/>
       <c r="AF601" s="14"/>
+      <c r="AG601" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="602" spans="1:34">
       <c r="A602" s="80" t="s">
@@ -67586,6 +67883,12 @@
       <c r="AE602" s="11"/>
       <c r="AF602" s="11" t="s">
         <v>42</v>
+      </c>
+      <c r="AG602" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH602" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="603" spans="1:34">
@@ -67668,6 +67971,12 @@
       <c r="AE603" s="14"/>
       <c r="AF603" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG603" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH603" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="604" spans="1:34">
@@ -67731,6 +68040,9 @@
       <c r="AF604" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG604" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="605" spans="1:34">
       <c r="A605" s="80" t="s">
@@ -67829,6 +68141,12 @@
       <c r="AF605" s="10" t="s">
         <v>1406</v>
       </c>
+      <c r="AG605" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH605" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="606" spans="1:34">
       <c r="A606" s="80" t="s">
@@ -67921,6 +68239,12 @@
       <c r="AF606" s="9" t="s">
         <v>1413</v>
       </c>
+      <c r="AG606" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH606" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="607" spans="1:34">
       <c r="A607" s="80" t="s">
@@ -68018,6 +68342,12 @@
       </c>
       <c r="AF607" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG607" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH607" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="608" spans="1:34">
@@ -68091,6 +68421,12 @@
       <c r="AD608" s="45"/>
       <c r="AE608" s="14"/>
       <c r="AF608" s="14"/>
+      <c r="AG608" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH608" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="609" spans="1:34">
       <c r="A609" s="80" t="s">
@@ -68183,6 +68519,12 @@
       <c r="AF609" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG609" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH609" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="610" spans="1:34">
       <c r="A610" s="80" t="s">
@@ -68281,6 +68623,9 @@
       <c r="AF610" s="10" t="s">
         <v>1440</v>
       </c>
+      <c r="AG610" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="611" spans="1:34">
       <c r="A611" s="80" t="s">
@@ -68373,6 +68718,9 @@
       <c r="AF611" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG611" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="612" spans="1:34">
       <c r="A612" s="80" t="s">
@@ -68465,6 +68813,9 @@
       <c r="AF612" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG612" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="613" spans="1:34">
       <c r="A613" s="80" t="s">
@@ -68557,6 +68908,9 @@
       <c r="AF613" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG613" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="614" spans="1:34">
       <c r="A614" s="80" t="s">
@@ -68649,6 +69003,9 @@
       <c r="AF614" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG614" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="615" spans="1:34">
       <c r="A615" s="80" t="s">
@@ -68741,6 +69098,9 @@
       <c r="AF615" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG615" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="616" spans="1:34">
       <c r="A616" s="80" t="s">
@@ -68833,6 +69193,9 @@
       <c r="AF616" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG616" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="617" spans="1:34">
       <c r="A617" s="80" t="s">
@@ -68925,6 +69288,9 @@
       <c r="AF617" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG617" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="618" spans="1:34">
       <c r="A618" s="80" t="s">
@@ -69017,6 +69383,9 @@
       <c r="AF618" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG618" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="619" spans="1:34">
       <c r="A619" s="80" t="s">
@@ -69109,6 +69478,9 @@
       <c r="AF619" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG619" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="620" spans="1:34">
       <c r="A620" s="80" t="s">
@@ -69201,6 +69573,9 @@
       <c r="AF620" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG620" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="621" spans="1:34">
       <c r="A621" s="80" t="s">
@@ -69293,6 +69668,9 @@
       <c r="AF621" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG621" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="622" spans="1:34">
       <c r="A622" s="80" t="s">
@@ -69387,6 +69765,12 @@
       <c r="AF622" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG622" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH622" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="623" spans="1:34">
       <c r="A623" s="80" t="s">
@@ -69473,6 +69857,12 @@
       <c r="AF623" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG623" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH623" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="624" spans="1:34">
       <c r="A624" s="80" t="s">
@@ -69565,6 +69955,9 @@
       <c r="AF624" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG624" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="625" spans="1:34">
       <c r="A625" s="80" t="s">
@@ -69657,6 +70050,9 @@
       <c r="AF625" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG625" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="626" spans="1:34">
       <c r="A626" s="80" t="s">
@@ -69749,6 +70145,9 @@
       <c r="AF626" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG626" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="627" spans="1:34">
       <c r="A627" s="80" t="s">
@@ -69841,6 +70240,9 @@
       <c r="AF627" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG627" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="628" spans="1:34">
       <c r="A628" s="80" t="s">
@@ -69933,6 +70335,9 @@
       <c r="AF628" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG628" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="629" spans="1:34">
       <c r="A629" s="80" t="s">
@@ -70025,6 +70430,9 @@
       <c r="AF629" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG629" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="630" spans="1:34">
       <c r="A630" s="80" t="s">
@@ -70117,6 +70525,9 @@
       <c r="AF630" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG630" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="631" spans="1:34">
       <c r="A631" s="80" t="s">
@@ -70209,6 +70620,9 @@
       <c r="AF631" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG631" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="632" spans="1:34">
       <c r="A632" s="80" t="s">
@@ -70301,6 +70715,9 @@
       <c r="AF632" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG632" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="633" spans="1:34">
       <c r="A633" s="80" t="s">
@@ -70393,6 +70810,9 @@
       <c r="AF633" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG633" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="634" spans="1:34">
       <c r="A634" s="80" t="s">
@@ -70485,6 +70905,9 @@
       <c r="AF634" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG634" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="635" spans="1:34">
       <c r="A635" s="80" t="s">
@@ -70577,6 +71000,9 @@
       <c r="AF635" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG635" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="636" spans="1:34">
       <c r="A636" s="80" t="s">
@@ -70669,6 +71095,9 @@
       <c r="AF636" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG636" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="637" spans="1:34">
       <c r="A637" s="80" t="s">
@@ -70761,6 +71190,9 @@
       <c r="AF637" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG637" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="638" spans="1:34">
       <c r="A638" s="80" t="s">
@@ -70853,6 +71285,9 @@
       <c r="AF638" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG638" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="639" spans="1:34">
       <c r="A639" s="80" t="s">
@@ -70945,6 +71380,9 @@
       <c r="AF639" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG639" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="640" spans="1:34">
       <c r="A640" s="80" t="s">
@@ -71037,6 +71475,9 @@
       <c r="AF640" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG640" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="641" spans="1:34">
       <c r="A641" s="80" t="s">
@@ -71129,6 +71570,9 @@
       <c r="AF641" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG641" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="642" spans="1:34">
       <c r="A642" s="80" t="s">
@@ -71221,6 +71665,9 @@
       <c r="AF642" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG642" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="643" spans="1:34">
       <c r="A643" s="80" t="s">
@@ -71313,6 +71760,9 @@
       <c r="AF643" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG643" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="644" spans="1:34">
       <c r="A644" s="80" t="s">
@@ -71405,6 +71855,9 @@
       <c r="AF644" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG644" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="645" spans="1:34">
       <c r="A645" s="80" t="s">
@@ -71497,6 +71950,9 @@
       <c r="AF645" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG645" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="646" spans="1:34">
       <c r="A646" s="80" t="s">
@@ -71589,6 +72045,9 @@
       <c r="AF646" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG646" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="647" spans="1:34">
       <c r="A647" s="80" t="s">
@@ -71681,6 +72140,9 @@
       <c r="AF647" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG647" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="648" spans="1:34">
       <c r="A648" s="80" t="s">
@@ -71773,6 +72235,9 @@
       <c r="AF648" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG648" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="649" spans="1:34">
       <c r="A649" s="80" t="s">
@@ -71865,6 +72330,9 @@
       <c r="AF649" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG649" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="650" spans="1:34">
       <c r="A650" s="80" t="s">
@@ -71957,6 +72425,9 @@
       <c r="AF650" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG650" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="651" spans="1:34">
       <c r="A651" s="80" t="s">
@@ -72049,6 +72520,9 @@
       <c r="AF651" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG651" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="652" spans="1:34">
       <c r="A652" s="80" t="s">
@@ -72141,6 +72615,9 @@
       <c r="AF652" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG652" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="653" spans="1:34">
       <c r="A653" s="80" t="s">
@@ -72233,6 +72710,9 @@
       <c r="AF653" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG653" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="654" spans="1:34">
       <c r="A654" s="80" t="s">
@@ -72325,6 +72805,9 @@
       <c r="AF654" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG654" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="655" spans="1:34">
       <c r="A655" s="80" t="s">
@@ -72417,6 +72900,9 @@
       <c r="AF655" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG655" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="656" spans="1:34">
       <c r="A656" s="80" t="s">
@@ -72508,6 +72994,9 @@
       <c r="AE656" s="14"/>
       <c r="AF656" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG656" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="657" spans="1:34">
@@ -72579,6 +73068,9 @@
       <c r="AF657" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="AG657" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="658" spans="1:34">
       <c r="A658" s="80" t="s">
@@ -72657,6 +73149,9 @@
       <c r="AF658" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="AG658" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="659" spans="1:34">
       <c r="A659" s="80" t="s">
@@ -72749,6 +73244,9 @@
       <c r="AF659" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="AG659" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="660" spans="1:34">
       <c r="A660" s="80" t="s">
@@ -72841,6 +73339,9 @@
       <c r="AF660" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="AG660" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="661" spans="1:34">
       <c r="A661" s="80" t="s">
@@ -72933,6 +73434,9 @@
       <c r="AF661" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="AG661" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="662" spans="1:34">
       <c r="A662" s="80" t="s">
@@ -73025,6 +73529,9 @@
       <c r="AF662" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="AG662" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="663" spans="1:34">
       <c r="A663" s="80" t="s">
@@ -73117,6 +73624,9 @@
       <c r="AF663" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="AG663" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="664" spans="1:34">
       <c r="A664" s="80" t="s">
@@ -73209,6 +73719,9 @@
       <c r="AF664" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="AG664" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="665" spans="1:34">
       <c r="A665" s="80" t="s">
@@ -73300,6 +73813,9 @@
       <c r="AE665" s="13"/>
       <c r="AF665" s="13" t="s">
         <v>42</v>
+      </c>
+      <c r="AG665" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="666" spans="1:34">
@@ -73383,6 +73899,9 @@
       <c r="AF666" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG666" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="667" spans="1:34">
       <c r="A667" s="14" t="s">
@@ -73449,6 +73968,12 @@
         <v>1508</v>
       </c>
       <c r="AF667" s="10"/>
+      <c r="AG667" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH667" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="668" spans="1:34">
       <c r="A668" s="14" t="s">
@@ -73519,6 +74044,12 @@
       <c r="AF668" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG668" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH668" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="669" spans="1:34">
       <c r="A669" s="14" t="s">
@@ -73589,6 +74120,12 @@
       <c r="AF669" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG669" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH669" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="670" spans="1:34">
       <c r="A670" s="14" t="s">
@@ -73661,6 +74198,12 @@
       <c r="AF670" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG670" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH670" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="671" spans="1:34">
       <c r="A671" s="14" t="s">
@@ -73733,6 +74276,12 @@
       <c r="AF671" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG671" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH671" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="672" spans="1:34">
       <c r="A672" s="14" t="s">
@@ -73803,6 +74352,12 @@
         <v>1545</v>
       </c>
       <c r="AF672" s="9"/>
+      <c r="AG672" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH672" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="673" spans="1:34">
       <c r="A673" s="14" t="s">
@@ -73861,6 +74416,9 @@
       <c r="AF673" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG673" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="674" spans="1:34">
       <c r="A674" s="14" t="s">
@@ -73931,6 +74489,12 @@
       <c r="AF674" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG674" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH674" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="675" spans="1:34">
       <c r="A675" s="14" t="s">
@@ -74001,6 +74565,12 @@
       <c r="AF675" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG675" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH675" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="676" spans="1:34">
       <c r="A676" s="14" t="s">
@@ -74075,6 +74645,12 @@
       <c r="AF676" s="10" t="s">
         <v>1569</v>
       </c>
+      <c r="AG676" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH676" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="677" spans="1:34">
       <c r="A677" s="14" t="s">
@@ -74146,6 +74722,12 @@
       </c>
       <c r="AF677" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="AG677" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH677" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="678" spans="1:34">
@@ -74211,6 +74793,9 @@
       <c r="AF678" s="9" t="s">
         <v>1580</v>
       </c>
+      <c r="AG678" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="679" spans="1:34">
       <c r="A679" s="14" t="s">
@@ -74281,6 +74866,12 @@
         <v>1538</v>
       </c>
       <c r="AF679" s="10"/>
+      <c r="AG679" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH679" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="680" spans="1:34">
       <c r="A680" s="14" t="s">
@@ -74353,6 +74944,12 @@
       <c r="AF680" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG680" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH680" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="681" spans="1:34">
       <c r="A681" s="14" t="s">
@@ -74425,6 +75022,12 @@
       <c r="AF681" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG681" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH681" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="682" spans="1:34">
       <c r="A682" s="14" t="s">
@@ -74499,6 +75102,12 @@
       <c r="AF682" s="10" t="s">
         <v>1613</v>
       </c>
+      <c r="AG682" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH682" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="683" spans="1:34">
       <c r="A683" s="14" t="s">
@@ -74571,6 +75180,12 @@
         <v>1621</v>
       </c>
       <c r="AF683" s="9"/>
+      <c r="AG683" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH683" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="684" spans="1:34">
       <c r="A684" s="14" t="s">
@@ -74641,6 +75256,12 @@
         <v>1629</v>
       </c>
       <c r="AF684" s="10"/>
+      <c r="AG684" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH684" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="685" spans="1:34">
       <c r="A685" s="14" t="s">
@@ -74709,6 +75330,12 @@
       <c r="AF685" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG685" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH685" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="686" spans="1:34">
       <c r="A686" s="14" t="s">
@@ -74779,6 +75406,12 @@
       <c r="AF686" s="52" t="s">
         <v>1642</v>
       </c>
+      <c r="AG686" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH686" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="687" spans="1:34">
       <c r="A687" s="14" t="s">
@@ -74847,6 +75480,12 @@
       <c r="AF687" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG687" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH687" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="688" spans="1:34">
       <c r="A688" s="14" t="s">
@@ -74917,6 +75556,9 @@
       <c r="AF688" s="10" t="s">
         <v>1655</v>
       </c>
+      <c r="AG688" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="689" spans="1:34">
       <c r="A689" s="14" t="s">
@@ -74989,6 +75631,12 @@
         <v>1663</v>
       </c>
       <c r="AF689" s="10"/>
+      <c r="AG689" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH689" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="690" spans="1:34">
       <c r="A690" s="14" t="s">
@@ -75059,6 +75707,12 @@
       <c r="AF690" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG690" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH690" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="691" spans="1:34">
       <c r="A691" s="14" t="s">
@@ -75131,6 +75785,12 @@
       <c r="AF691" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG691" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH691" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="692" spans="1:34">
       <c r="A692" s="14" t="s">
@@ -75205,6 +75865,12 @@
       <c r="AF692" s="10" t="s">
         <v>1684</v>
       </c>
+      <c r="AG692" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH692" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="693" spans="1:34">
       <c r="A693" s="14" t="s">
@@ -75277,6 +75943,12 @@
       <c r="AF693" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG693" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH693" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="694" spans="1:34">
       <c r="A694" s="14" t="s">
@@ -75347,6 +76019,12 @@
       <c r="AF694" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG694" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH694" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="695" spans="1:34">
       <c r="A695" s="14" t="s">
@@ -75421,6 +76099,12 @@
       <c r="AF695" s="10" t="s">
         <v>1702</v>
       </c>
+      <c r="AG695" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH695" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="696" spans="1:34">
       <c r="A696" s="14" t="s">
@@ -75493,6 +76177,12 @@
       <c r="AF696" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG696" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH696" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="697" spans="1:34">
       <c r="A697" s="14" t="s">
@@ -75565,6 +76255,12 @@
       <c r="AF697" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG697" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH697" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="698" spans="1:34">
       <c r="A698" s="14" t="s">
@@ -75635,6 +76331,12 @@
       <c r="AF698" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG698" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH698" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="699" spans="1:34">
       <c r="A699" s="14" t="s">
@@ -75705,6 +76407,9 @@
       <c r="AF699" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG699" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="700" spans="1:34">
       <c r="A700" s="14" t="s">
@@ -75772,6 +76477,12 @@
       </c>
       <c r="AF700" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG700" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH700" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="701" spans="1:34">
@@ -75841,6 +76552,9 @@
       <c r="AF701" s="10" t="s">
         <v>1742</v>
       </c>
+      <c r="AG701" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="702" spans="1:34">
       <c r="A702" s="14" t="s">
@@ -75909,6 +76623,12 @@
       <c r="AF702" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG702" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH702" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="703" spans="1:34">
       <c r="A703" s="14" t="s">
@@ -75981,6 +76701,12 @@
       <c r="AF703" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG703" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH703" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="704" spans="1:34">
       <c r="A704" s="14" t="s">
@@ -76053,6 +76779,9 @@
         <v>44543</v>
       </c>
       <c r="AF704" s="10"/>
+      <c r="AG704" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="705" spans="1:34">
       <c r="A705" s="14" t="s">
@@ -76119,6 +76848,12 @@
       <c r="AF705" s="52" t="s">
         <v>42</v>
       </c>
+      <c r="AG705" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH705" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="706" spans="1:34">
       <c r="A706" s="14" t="s">
@@ -76189,6 +76924,12 @@
         <v>1777</v>
       </c>
       <c r="AF706" s="79"/>
+      <c r="AG706" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH706" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="707" spans="1:34">
       <c r="A707" s="14" t="s">
@@ -76257,6 +76998,12 @@
       </c>
       <c r="AD707" s="153"/>
       <c r="AF707" s="14"/>
+      <c r="AG707" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH707" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="708" spans="1:34">
       <c r="A708" s="14" t="s">
@@ -76289,6 +77036,9 @@
       <c r="AF708" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG708" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="709" spans="1:34">
       <c r="A709" s="14" t="s">
@@ -76359,6 +77109,12 @@
       <c r="AF709" s="10" t="s">
         <v>1792</v>
       </c>
+      <c r="AG709" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH709" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="710" spans="1:34">
       <c r="A710" s="14" t="s">
@@ -76429,6 +77185,12 @@
         <v>1799</v>
       </c>
       <c r="AF710" s="10"/>
+      <c r="AG710" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH710" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="711" spans="1:34">
       <c r="A711" s="14" t="s">
@@ -76501,6 +77263,12 @@
       <c r="AF711" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG711" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH711" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="712" spans="1:34">
       <c r="A712" s="14" t="s">
@@ -76571,6 +77339,12 @@
       <c r="AF712" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG712" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH712" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="713" spans="1:34">
       <c r="A713" s="14" t="s">
@@ -76641,6 +77415,12 @@
       <c r="AF713" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG713" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH713" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="714" spans="1:34">
       <c r="A714" s="14" t="s">
@@ -76714,6 +77494,12 @@
       </c>
       <c r="AF714" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG714" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH714" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="715" spans="1:34">
@@ -76781,6 +77567,9 @@
       <c r="AF715" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG715" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="716" spans="1:34">
       <c r="A716" s="14" t="s">
@@ -76853,6 +77642,12 @@
       <c r="AF716" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG716" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH716" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="717" spans="1:34">
       <c r="A717" s="14" t="s">
@@ -76925,6 +77720,12 @@
       <c r="AF717" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG717" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH717" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="718" spans="1:34">
       <c r="A718" s="14" t="s">
@@ -76997,6 +77798,12 @@
       <c r="AF718" s="10" t="s">
         <v>1855</v>
       </c>
+      <c r="AG718" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH718" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="719" spans="1:34">
       <c r="A719" s="14" t="s">
@@ -77071,6 +77878,12 @@
       <c r="AF719" s="9" t="s">
         <v>1861</v>
       </c>
+      <c r="AG719" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH719" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="720" spans="1:34">
       <c r="A720" s="14" t="s">
@@ -77145,6 +77958,12 @@
       <c r="AF720" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG720" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH720" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="721" spans="1:34">
       <c r="A721" s="14" t="s">
@@ -77213,6 +78032,12 @@
         <v>1877</v>
       </c>
       <c r="AF721" s="10"/>
+      <c r="AG721" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH721" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="722" spans="1:34">
       <c r="A722" s="14" t="s">
@@ -77281,6 +78106,12 @@
       <c r="AF722" s="10" t="s">
         <v>1884</v>
       </c>
+      <c r="AG722" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH722" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="723" spans="1:34">
       <c r="A723" s="14" t="s">
@@ -77351,6 +78182,12 @@
         <v>1892</v>
       </c>
       <c r="AF723" s="14"/>
+      <c r="AG723" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH723" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="724" spans="1:34">
       <c r="A724" s="14" t="s">
@@ -77387,6 +78224,9 @@
       <c r="AF724" s="10" t="s">
         <v>1792</v>
       </c>
+      <c r="AG724" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="725" spans="1:34">
       <c r="A725" s="14" t="s">
@@ -77453,6 +78293,12 @@
       <c r="AF725" s="9" t="s">
         <v>1901</v>
       </c>
+      <c r="AG725" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH725" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="726" spans="1:34">
       <c r="A726" s="14" t="s">
@@ -77521,6 +78367,12 @@
       <c r="AF726" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG726" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH726" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="727" spans="1:34">
       <c r="A727" s="14" t="s">
@@ -77595,6 +78447,12 @@
       <c r="AF727" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG727" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH727" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="728" spans="1:34">
       <c r="A728" s="14" t="s">
@@ -77665,6 +78523,12 @@
         <v>1914</v>
       </c>
       <c r="AF728" s="10"/>
+      <c r="AG728" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH728" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="729" spans="1:34">
       <c r="A729" s="14" t="s">
@@ -77733,6 +78597,12 @@
       <c r="AF729" s="10" t="s">
         <v>1924</v>
       </c>
+      <c r="AG729" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH729" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="730" spans="1:34">
       <c r="A730" s="14" t="s">
@@ -77801,6 +78671,9 @@
       <c r="AF730" s="9" t="s">
         <v>1931</v>
       </c>
+      <c r="AG730" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="731" spans="1:34">
       <c r="A731" s="14" t="s">
@@ -77872,6 +78745,12 @@
       </c>
       <c r="AF731" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG731" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH731" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="732" spans="1:34">
@@ -77929,6 +78808,9 @@
       <c r="AF732" s="10" t="s">
         <v>1942</v>
       </c>
+      <c r="AG732" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="733" spans="1:34">
       <c r="A733" s="14" t="s">
@@ -78001,6 +78883,12 @@
       <c r="AF733" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="AG733" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH733" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="734" spans="1:34">
       <c r="A734" s="14" t="s">
@@ -78075,6 +78963,12 @@
       <c r="AF734" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG734" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH734" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="735" spans="1:34">
       <c r="A735" s="14" t="s">
@@ -78146,6 +79040,12 @@
       </c>
       <c r="AF735" s="52" t="s">
         <v>1964</v>
+      </c>
+      <c r="AG735" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH735" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="736" spans="1:34">
@@ -78209,6 +79109,12 @@
       <c r="AF736" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG736" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH736" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="737" spans="1:34">
       <c r="A737" s="14" t="s">
@@ -78277,6 +79183,12 @@
       <c r="AF737" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG737" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH737" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="738" spans="1:34">
       <c r="A738" s="14" t="s">
@@ -78351,6 +79263,12 @@
       <c r="AF738" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG738" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH738" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="739" spans="1:34">
       <c r="A739" s="14" t="s">
@@ -78425,6 +79343,12 @@
       <c r="AF739" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG739" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH739" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="740" spans="1:34">
       <c r="A740" s="14" t="s">
@@ -78495,6 +79419,9 @@
       <c r="AF740" s="9" t="s">
         <v>1994</v>
       </c>
+      <c r="AG740" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="741" spans="1:34">
       <c r="A741" s="14" t="s">
@@ -78565,6 +79492,9 @@
       <c r="AF741" s="10" t="s">
         <v>1999</v>
       </c>
+      <c r="AG741" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="742" spans="1:34">
       <c r="A742" s="14" t="s">
@@ -78631,6 +79561,9 @@
       <c r="AF742" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG742" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="743" spans="1:34">
       <c r="A743" s="14" t="s">
@@ -78697,6 +79630,9 @@
       <c r="AF743" s="9" t="s">
         <v>2011</v>
       </c>
+      <c r="AG743" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="744" spans="1:34">
       <c r="A744" s="14" t="s">
@@ -78769,6 +79705,9 @@
       <c r="AF744" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="AG744" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="745" spans="1:34">
       <c r="A745" s="14" t="s">
@@ -78840,6 +79779,12 @@
       </c>
       <c r="AF745" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG745" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH745" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="746" spans="1:34">
@@ -78901,6 +79846,12 @@
         <v>2026</v>
       </c>
       <c r="AF746" s="11"/>
+      <c r="AG746" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH746" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="747" spans="1:34">
       <c r="A747" s="14" t="s">
@@ -78947,6 +79898,9 @@
       <c r="AF747" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG747" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="748" spans="1:34">
       <c r="A748" s="14" t="s">
@@ -79019,6 +79973,12 @@
       <c r="AF748" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG748" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH748" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="749" spans="1:34">
       <c r="A749" s="14" t="s">
@@ -79087,6 +80047,9 @@
       <c r="AF749" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG749" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="750" spans="1:34">
       <c r="A750" s="14" t="s">
@@ -79159,6 +80122,12 @@
       <c r="AF750" s="10" t="s">
         <v>2058</v>
       </c>
+      <c r="AG750" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH750" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="751" spans="1:34">
       <c r="A751" s="14" t="s">
@@ -79229,6 +80198,12 @@
       <c r="AF751" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG751" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH751" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="752" spans="1:34">
       <c r="A752" s="14" t="s">
@@ -79296,6 +80271,12 @@
       </c>
       <c r="AF752" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG752" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH752" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="753" spans="1:34">
@@ -79349,6 +80330,9 @@
       <c r="AF753" s="9" t="s">
         <v>2070</v>
       </c>
+      <c r="AG753" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="754" spans="1:34">
       <c r="A754" s="14" t="s">
@@ -79414,6 +80398,12 @@
       </c>
       <c r="AF754" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG754" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH754" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="755" spans="1:34">
@@ -79481,6 +80471,12 @@
         <v>2084</v>
       </c>
       <c r="AF755" s="14"/>
+      <c r="AG755" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH755" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="756" spans="1:34">
       <c r="A756" s="14" t="s">
@@ -79533,6 +80529,9 @@
       <c r="AF756" s="10" t="s">
         <v>2089</v>
       </c>
+      <c r="AG756" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="757" spans="1:34">
       <c r="A757" s="14" t="s">
@@ -79605,6 +80604,12 @@
       <c r="AF757" s="10" t="s">
         <v>2098</v>
       </c>
+      <c r="AG757" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH757" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="758" spans="1:34">
       <c r="A758" s="14" t="s">
@@ -79672,6 +80677,12 @@
       </c>
       <c r="AF758" s="10" t="s">
         <v>2104</v>
+      </c>
+      <c r="AG758" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH758" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="759" spans="1:34">
@@ -79735,6 +80746,9 @@
       <c r="AF759" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG759" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="760" spans="1:34">
       <c r="A760" s="14" t="s">
@@ -79809,6 +80823,12 @@
       <c r="AF760" s="10" t="s">
         <v>1792</v>
       </c>
+      <c r="AG760" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH760" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="761" spans="1:34">
       <c r="A761" s="14" t="s">
@@ -79879,6 +80899,12 @@
       <c r="AF761" s="10" t="s">
         <v>2120</v>
       </c>
+      <c r="AG761" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH761" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="762" spans="1:34">
       <c r="A762" s="14" t="s">
@@ -79941,6 +80967,9 @@
       <c r="AF762" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG762" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="763" spans="1:34">
       <c r="A763" s="14" t="s">
@@ -80011,6 +81040,12 @@
         <v>2131</v>
       </c>
       <c r="AF763" s="14"/>
+      <c r="AG763" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH763" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="764" spans="1:34">
       <c r="A764" s="14" t="s">
@@ -80067,6 +81102,9 @@
         <v>2135</v>
       </c>
       <c r="AF764" s="14"/>
+      <c r="AG764" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="765" spans="1:34">
       <c r="A765" s="14" t="s">
@@ -80110,6 +81148,9 @@
       <c r="AD765" s="46" t="s">
         <v>2138</v>
       </c>
+      <c r="AG765" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="766" spans="1:34">
       <c r="A766" s="14" t="s">
@@ -80184,6 +81225,12 @@
       <c r="AF766" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG766" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH766" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="767" spans="1:34">
       <c r="A767" s="14" t="s">
@@ -80258,6 +81305,12 @@
       <c r="AF767" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG767" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH767" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="768" spans="1:34">
       <c r="A768" s="14" t="s">
@@ -80332,6 +81385,12 @@
       <c r="AF768" s="10" t="s">
         <v>2162</v>
       </c>
+      <c r="AG768" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH768" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="769" spans="1:34">
       <c r="A769" s="14" t="s">
@@ -80402,6 +81461,12 @@
       <c r="AF769" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG769" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH769" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="770" spans="1:34">
       <c r="A770" s="14" t="s">
@@ -80472,6 +81537,12 @@
       <c r="AF770" s="10" t="s">
         <v>2177</v>
       </c>
+      <c r="AG770" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH770" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="771" spans="1:34">
       <c r="A771" s="14" t="s">
@@ -80546,6 +81617,12 @@
       <c r="AF771" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG771" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH771" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="772" spans="1:34">
       <c r="A772" s="14" t="s">
@@ -80620,6 +81697,12 @@
       <c r="AF772" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG772" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH772" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="773" spans="1:34">
       <c r="A773" s="14" t="s">
@@ -80692,6 +81775,9 @@
       <c r="AF773" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG773" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="774" spans="1:34">
       <c r="A774" s="14" t="s">
@@ -80766,6 +81852,12 @@
       <c r="AF774" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG774" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH774" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="775" spans="1:34">
       <c r="A775" s="14" t="s">
@@ -80840,6 +81932,12 @@
       <c r="AF775" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG775" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH775" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="776" spans="1:34">
       <c r="A776" s="14" t="s">
@@ -80914,6 +82012,12 @@
       <c r="AF776" s="10" t="s">
         <v>2213</v>
       </c>
+      <c r="AG776" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH776" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="777" spans="1:34">
       <c r="A777" s="14" t="s">
@@ -80986,6 +82090,12 @@
       <c r="AF777" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG777" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH777" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="778" spans="1:34">
       <c r="A778" s="14" t="s">
@@ -81060,6 +82170,12 @@
       <c r="AF778" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG778" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH778" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="779" spans="1:34">
       <c r="A779" s="14" t="s">
@@ -81134,6 +82250,12 @@
       <c r="AF779" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG779" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH779" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="780" spans="1:34">
       <c r="A780" s="14" t="s">
@@ -81196,6 +82318,12 @@
       <c r="AF780" s="40" t="s">
         <v>42</v>
       </c>
+      <c r="AG780" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH780" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="781" spans="1:34">
       <c r="A781" s="14" t="s">
@@ -81260,6 +82388,12 @@
       <c r="AF781" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG781" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH781" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="782" spans="1:34">
       <c r="A782" s="14" t="s">
@@ -81332,6 +82466,12 @@
       <c r="AF782" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG782" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH782" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="783" spans="1:34">
       <c r="A783" s="14" t="s">
@@ -81401,6 +82541,9 @@
       <c r="AD783" s="45"/>
       <c r="AF783" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG783" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="784" spans="1:34">
@@ -81464,6 +82607,12 @@
       <c r="AF784" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG784" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH784" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="785" spans="1:34">
       <c r="A785" s="14" t="s">
@@ -81530,6 +82679,12 @@
       <c r="AF785" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG785" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH785" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="786" spans="1:34">
       <c r="A786" s="14" t="s">
@@ -81602,6 +82757,12 @@
       <c r="AF786" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG786" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH786" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="787" spans="1:34">
       <c r="A787" s="14" t="s">
@@ -81674,6 +82835,12 @@
       <c r="AF787" s="9" t="s">
         <v>2268</v>
       </c>
+      <c r="AG787" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH787" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="788" spans="1:34">
       <c r="A788" s="14" t="s">
@@ -81748,6 +82915,12 @@
       <c r="AF788" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG788" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH788" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="789" spans="1:34">
       <c r="A789" s="14" t="s">
@@ -81795,6 +82968,12 @@
       <c r="AF789" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG789" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH789" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="790" spans="1:34">
       <c r="A790" s="14" t="s">
@@ -81842,6 +83021,9 @@
       <c r="AF790" s="10" t="s">
         <v>2281</v>
       </c>
+      <c r="AG790" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="791" spans="1:34">
       <c r="A791" s="14" t="s">
@@ -81889,6 +83071,9 @@
       <c r="AF791" s="10" t="s">
         <v>2281</v>
       </c>
+      <c r="AG791" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="792" spans="1:34">
       <c r="A792" s="14" t="s">
@@ -81940,6 +83125,12 @@
       <c r="AF792" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG792" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH792" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="793" spans="1:34">
       <c r="A793" s="14" t="s">
@@ -81991,6 +83182,9 @@
       <c r="AF793" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG793" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="794" spans="1:34">
       <c r="A794" s="14" t="s">
@@ -82042,6 +83236,9 @@
       <c r="AF794" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG794" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="795" spans="1:34">
       <c r="A795" s="14" t="s">
@@ -82092,6 +83289,12 @@
       </c>
       <c r="AF795" s="10" t="s">
         <v>2300</v>
+      </c>
+      <c r="AG795" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH795" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="796" spans="1:34">
@@ -82140,6 +83343,12 @@
       <c r="AF796" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG796" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH796" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="797" spans="1:34">
       <c r="A797" s="14" t="s">
@@ -82191,6 +83400,9 @@
       <c r="AF797" s="10" t="s">
         <v>2308</v>
       </c>
+      <c r="AG797" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="798" spans="1:34">
       <c r="A798" s="14" t="s">
@@ -82242,6 +83454,9 @@
       <c r="AF798" s="10" t="s">
         <v>2315</v>
       </c>
+      <c r="AG798" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="799" spans="1:34">
       <c r="A799" s="14" t="s">
@@ -82295,6 +83510,12 @@
       <c r="AF799" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG799" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH799" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="800" spans="1:34">
       <c r="A800" s="14" t="s">
@@ -82340,6 +83561,12 @@
       <c r="AF800" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG800" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH800" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="801" spans="1:34">
       <c r="A801" s="14" t="s">
@@ -82389,6 +83616,12 @@
       <c r="AF801" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG801" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH801" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="802" spans="1:34">
       <c r="A802" s="14" t="s">
@@ -82438,6 +83671,12 @@
         <v>44397</v>
       </c>
       <c r="AF802" s="14"/>
+      <c r="AG802" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH802" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="803" spans="1:34">
       <c r="A803" s="14" t="s">
@@ -82483,6 +83722,12 @@
       <c r="AF803" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG803" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH803" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="804" spans="1:34">
       <c r="A804" s="14" t="s">
@@ -82536,6 +83781,12 @@
       <c r="AF804" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG804" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH804" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="805" spans="1:34">
       <c r="A805" s="14" t="s">
@@ -82587,6 +83838,12 @@
       <c r="AF805" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG805" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH805" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="806" spans="1:34">
       <c r="A806" s="14" t="s">
@@ -82640,6 +83897,12 @@
       <c r="AF806" s="52" t="s">
         <v>42</v>
       </c>
+      <c r="AG806" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH806" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="807" spans="1:34">
       <c r="A807" s="14" t="s">
@@ -82689,6 +83952,9 @@
       <c r="AF807" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG807" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="808" spans="1:34">
       <c r="A808" s="14" t="s">
@@ -82742,6 +84008,12 @@
       <c r="AF808" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG808" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH808" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="809" spans="1:34">
       <c r="A809" s="14" t="s">
@@ -82791,6 +84063,9 @@
       <c r="AF809" s="10" t="s">
         <v>2373</v>
       </c>
+      <c r="AG809" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="810" spans="1:34">
       <c r="A810" s="14" t="s">
@@ -82840,6 +84115,9 @@
       <c r="AF810" s="10" t="s">
         <v>2378</v>
       </c>
+      <c r="AG810" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="811" spans="1:34">
       <c r="A811" s="14" t="s">
@@ -82891,6 +84169,12 @@
       <c r="AF811" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG811" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH811" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="812" spans="1:34">
       <c r="A812" s="14" t="s">
@@ -82942,6 +84226,12 @@
       <c r="AF812" s="9" t="s">
         <v>2391</v>
       </c>
+      <c r="AG812" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH812" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="813" spans="1:34">
       <c r="A813" s="14" t="s">
@@ -82989,6 +84279,12 @@
       <c r="AF813" s="9" t="s">
         <v>2396</v>
       </c>
+      <c r="AG813" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH813" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="814" spans="1:34">
       <c r="A814" s="14" t="s">
@@ -83038,6 +84334,9 @@
       <c r="AF814" s="10" t="s">
         <v>2402</v>
       </c>
+      <c r="AG814" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="815" spans="1:34">
       <c r="A815" s="14" t="s">
@@ -83087,6 +84386,9 @@
       <c r="AF815" s="52" t="s">
         <v>42</v>
       </c>
+      <c r="AG815" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="816" spans="1:34">
       <c r="A816" s="14" t="s">
@@ -83138,6 +84440,12 @@
       <c r="AF816" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG816" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH816" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="817" spans="1:34">
       <c r="A817" s="14" t="s">
@@ -83189,6 +84497,12 @@
       <c r="AF817" s="10" t="s">
         <v>2417</v>
       </c>
+      <c r="AG817" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH817" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="818" spans="1:34">
       <c r="A818" s="14" t="s">
@@ -83234,6 +84548,12 @@
       <c r="AF818" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG818" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH818" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="819" spans="1:34">
       <c r="A819" s="14" t="s">
@@ -83279,6 +84599,12 @@
       <c r="AF819" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG819" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH819" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="820" spans="1:34">
       <c r="A820" s="14" t="s">
@@ -83324,6 +84650,12 @@
       <c r="AF820" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG820" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH820" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="821" spans="1:34">
       <c r="A821" s="14" t="s">
@@ -83369,6 +84701,12 @@
       <c r="AF821" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG821" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH821" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="822" spans="1:34">
       <c r="A822" s="14" t="s">
@@ -83414,6 +84752,12 @@
       <c r="AF822" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG822" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH822" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="823" spans="1:34">
       <c r="A823" s="14" t="s">
@@ -83459,6 +84803,12 @@
       <c r="AF823" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG823" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH823" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="824" spans="1:34">
       <c r="A824" s="14" t="s">
@@ -83504,6 +84854,12 @@
       <c r="AF824" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG824" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH824" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="825" spans="1:34">
       <c r="A825" s="14" t="s">
@@ -83549,6 +84905,12 @@
       <c r="AF825" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG825" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH825" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="826" spans="1:34">
       <c r="A826" s="14" t="s">
@@ -83594,6 +84956,12 @@
       <c r="AF826" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG826" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH826" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="827" spans="1:34">
       <c r="A827" s="14" t="s">
@@ -83639,6 +85007,12 @@
       <c r="AF827" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG827" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH827" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="828" spans="1:34">
       <c r="A828" s="14" t="s">
@@ -83684,6 +85058,12 @@
       <c r="AF828" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG828" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH828" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="829" spans="1:34">
       <c r="A829" s="14" t="s">
@@ -83729,6 +85109,12 @@
       <c r="AF829" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG829" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH829" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="830" spans="1:34">
       <c r="A830" s="14" t="s">
@@ -83774,6 +85160,12 @@
       <c r="AF830" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG830" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH830" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="831" spans="1:34">
       <c r="A831" s="14" t="s">
@@ -83819,6 +85211,9 @@
       <c r="AF831" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG831" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="832" spans="1:34">
       <c r="A832" s="14" t="s">
@@ -83868,6 +85263,12 @@
       <c r="AF832" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG832" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH832" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="833" spans="1:34">
       <c r="A833" s="14" t="s">
@@ -83917,6 +85318,12 @@
       <c r="AF833" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG833" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH833" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="834" spans="1:34">
       <c r="A834" s="14" t="s">
@@ -83965,6 +85372,12 @@
       </c>
       <c r="AF834" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG834" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH834" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="835" spans="1:34">
@@ -83997,6 +85410,9 @@
       <c r="AC835" s="14"/>
       <c r="AD835" s="45"/>
       <c r="AF835" s="14"/>
+      <c r="AG835" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="836" spans="1:34">
       <c r="A836" s="14" t="s">
@@ -84048,6 +85464,9 @@
       <c r="AF836" s="10" t="s">
         <v>2451</v>
       </c>
+      <c r="AG836" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="837" spans="1:34">
       <c r="A837" s="14" t="s">
@@ -84101,6 +85520,12 @@
       <c r="AF837" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG837" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH837" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="838" spans="1:34">
       <c r="A838" s="14" t="s">
@@ -84152,6 +85577,12 @@
       <c r="AF838" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG838" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH838" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="839" spans="1:34">
       <c r="A839" s="14" t="s">
@@ -84203,6 +85634,12 @@
       <c r="AF839" s="10" t="s">
         <v>2468</v>
       </c>
+      <c r="AG839" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH839" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="840" spans="1:34">
       <c r="A840" s="14" t="s">
@@ -84252,6 +85689,9 @@
       <c r="AF840" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG840" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="841" spans="1:34">
       <c r="A841" s="14" t="s">
@@ -84301,6 +85741,9 @@
       <c r="AF841" s="10" t="s">
         <v>2478</v>
       </c>
+      <c r="AG841" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="842" spans="1:34">
       <c r="A842" s="14" t="s">
@@ -84351,6 +85794,12 @@
       </c>
       <c r="AF842" s="10" t="s">
         <v>2484</v>
+      </c>
+      <c r="AG842" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH842" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="843" spans="1:34">
@@ -84395,6 +85844,9 @@
       <c r="AF843" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG843" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="844" spans="1:34">
       <c r="A844" s="14" t="s">
@@ -84447,6 +85899,12 @@
       </c>
       <c r="AF844" s="52" t="s">
         <v>2493</v>
+      </c>
+      <c r="AG844" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH844" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="845" spans="1:34">
@@ -84483,6 +85941,9 @@
       <c r="AF845" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG845" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="846" spans="1:34">
       <c r="A846" s="14" t="s">
@@ -84528,6 +85989,9 @@
       <c r="AF846" s="10" t="s">
         <v>2498</v>
       </c>
+      <c r="AG846" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="847" spans="1:34">
       <c r="A847" s="14" t="s">
@@ -84577,6 +86041,12 @@
       <c r="AF847" s="10" t="s">
         <v>2417</v>
       </c>
+      <c r="AG847" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH847" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="848" spans="1:34">
       <c r="A848" s="14" t="s">
@@ -84628,6 +86098,12 @@
       <c r="AF848" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG848" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH848" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="849" spans="1:34">
       <c r="A849" s="14" t="s">
@@ -84681,6 +86157,12 @@
       <c r="AF849" s="10" t="s">
         <v>2516</v>
       </c>
+      <c r="AG849" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH849" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="850" spans="1:34">
       <c r="A850" s="14" t="s">
@@ -84733,6 +86215,12 @@
       </c>
       <c r="AF850" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG850" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH850" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="851" spans="1:34">
@@ -84777,6 +86265,9 @@
       <c r="AF851" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="AG851" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="852" spans="1:34">
       <c r="A852" s="14" t="s">
@@ -84825,6 +86316,9 @@
       </c>
       <c r="AF852" s="9" t="s">
         <v>2532</v>
+      </c>
+      <c r="AG852" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="853" spans="1:34">
@@ -84869,6 +86363,9 @@
         <v>44628</v>
       </c>
       <c r="AF853" s="14"/>
+      <c r="AG853" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="854" spans="1:34">
       <c r="A854" s="14" t="s">
@@ -84936,6 +86433,12 @@
       </c>
       <c r="AF854" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="AG854" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH854" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="855" spans="1:34">
@@ -84979,6 +86482,12 @@
       <c r="AF855" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG855" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH855" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="856" spans="1:34">
       <c r="A856" s="14" t="s">
@@ -85045,8 +86554,12 @@
       <c r="AF856" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AG856" s="156"/>
-      <c r="AH856" s="156"/>
+      <c r="AG856" s="156" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH856" s="156" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="857" spans="1:34">
       <c r="A857" s="14" t="s">
@@ -85099,6 +86612,12 @@
       <c r="AF857" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG857" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH857" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="858" spans="1:34">
       <c r="A858" s="14" t="s">
@@ -85163,6 +86682,9 @@
       <c r="AF858" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG858" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="859" spans="1:34">
       <c r="A859" s="14" t="s">
@@ -85231,6 +86753,12 @@
       <c r="AF859" s="11" t="s">
         <v>2571</v>
       </c>
+      <c r="AG859" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH859" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="860" spans="1:34">
       <c r="A860" s="14" t="s">
@@ -85298,6 +86826,12 @@
       </c>
       <c r="AF860" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="AG860" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH860" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="861" spans="1:34">
@@ -85349,6 +86883,12 @@
       <c r="AF861" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG861" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH861" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="862" spans="1:34">
       <c r="A862" s="14" t="s">
@@ -85417,6 +86957,12 @@
       <c r="AF862" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG862" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH862" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="863" spans="1:34">
       <c r="A863" s="14" t="s">
@@ -85485,6 +87031,12 @@
       <c r="AF863" s="10" t="s">
         <v>2593</v>
       </c>
+      <c r="AG863" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH863" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="864" spans="1:34">
       <c r="A864" s="14" t="s">
@@ -85551,6 +87103,9 @@
       <c r="AF864" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG864" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="865" spans="1:34">
       <c r="A865" s="14" t="s">
@@ -85615,6 +87170,12 @@
       <c r="AF865" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG865" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH865" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="866" spans="1:34">
       <c r="A866" s="14" t="s">
@@ -85677,6 +87238,9 @@
       </c>
       <c r="AF866" s="10" t="s">
         <v>2612</v>
+      </c>
+      <c r="AG866" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="867" spans="1:34">
@@ -85732,6 +87296,12 @@
       <c r="AD867" s="44"/>
       <c r="AF867" s="10" t="s">
         <v>2621</v>
+      </c>
+      <c r="AG867" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH867" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="868" spans="1:34">
@@ -85774,6 +87344,9 @@
       <c r="AC868" s="14"/>
       <c r="AD868" s="45"/>
       <c r="AF868" s="14"/>
+      <c r="AG868" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="869" spans="1:34">
       <c r="A869" s="14" t="s">
@@ -85841,6 +87414,12 @@
       <c r="AF869" s="10" t="s">
         <v>2632</v>
       </c>
+      <c r="AG869" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH869" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="870" spans="1:34">
       <c r="A870" s="14" t="s">
@@ -85910,6 +87489,9 @@
       <c r="AF870" s="10" t="s">
         <v>2638</v>
       </c>
+      <c r="AG870" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="871" spans="1:34">
       <c r="A871" s="14" t="s">
@@ -85975,6 +87557,9 @@
       <c r="AF871" s="10" t="s">
         <v>2641</v>
       </c>
+      <c r="AG871" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="872" spans="1:34">
       <c r="A872" s="14" t="s">
@@ -86011,6 +87596,9 @@
       <c r="M872" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG872" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="873" spans="1:34">
       <c r="A873" s="14" t="s">
@@ -86066,6 +87654,12 @@
       <c r="AF873" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG873" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH873" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="874" spans="1:34">
       <c r="A874" s="14" t="s">
@@ -86123,6 +87717,12 @@
         <v>44162</v>
       </c>
       <c r="AF874" s="10"/>
+      <c r="AG874" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH874" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="875" spans="1:34">
       <c r="A875" s="14" t="s">
@@ -86174,6 +87774,12 @@
       </c>
       <c r="AD875" s="45"/>
       <c r="AF875" s="14"/>
+      <c r="AG875" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH875" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="876" spans="1:34">
       <c r="A876" s="14" t="s">
@@ -86231,6 +87837,12 @@
       <c r="AF876" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG876" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH876" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="877" spans="1:34">
       <c r="A877" s="14" t="s">
@@ -86284,6 +87896,9 @@
         <v>44145</v>
       </c>
       <c r="AF877" s="9"/>
+      <c r="AG877" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="878" spans="1:34">
       <c r="A878" s="14" t="s">
@@ -86339,6 +87954,12 @@
       <c r="AF878" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG878" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH878" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="879" spans="1:34">
       <c r="A879" s="14" t="s">
@@ -86388,6 +88009,9 @@
       <c r="AF879" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="AG879" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="880" spans="1:34">
       <c r="A880" s="14" t="s">
@@ -86417,6 +88041,9 @@
       <c r="AF880" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AG880" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="881" spans="1:34">
       <c r="A881" s="14" t="s">
@@ -86443,6 +88070,9 @@
       </c>
       <c r="AF881" s="10" t="s">
         <v>2693</v>
+      </c>
+      <c r="AG881" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -568,7 +568,7 @@
     <t>E143</t>
   </si>
   <si>
-    <t>failed</t>
+    <t>sin precio</t>
   </si>
   <si>
     <t>Alzara</t>
@@ -68624,7 +68624,10 @@
         <v>1440</v>
       </c>
       <c r="AG610" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="AH610" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="611" spans="1:34">
@@ -73900,7 +73903,7 @@
         <v>42</v>
       </c>
       <c r="AG666" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
     </row>
     <row r="667" spans="1:34">
@@ -75557,7 +75560,10 @@
         <v>1655</v>
       </c>
       <c r="AG688" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="AH688" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="689" spans="1:34">
@@ -76408,7 +76414,10 @@
         <v>42</v>
       </c>
       <c r="AG699" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="AH699" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="700" spans="1:34">
@@ -76780,7 +76789,10 @@
       </c>
       <c r="AF704" s="10"/>
       <c r="AG704" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="AH704" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="705" spans="1:34">
@@ -82543,7 +82555,10 @@
         <v>42</v>
       </c>
       <c r="AG783" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="AH783" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="784" spans="1:34">
